--- a/simulations/GenerativeAI_Calculations_Step4.xlsx
+++ b/simulations/GenerativeAI_Calculations_Step4.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Initial Beliefs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Impacts" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Utilities" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Belief Update" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exigence Update" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Parameters" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Initial Beliefs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Impacts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expected Utilities" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Belief Update" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Exigence Update" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +36,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="6">
@@ -69,7 +74,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,13 +82,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -454,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,136 +479,530 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Initial Beliefs</t>
+          <t>Model Parameters and Assumptions</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Scenario</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>gen_ai</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Generative AI or Citizen Science scenario</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>M_O</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Maximum impact for organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>M_R</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Maximum impact for researcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>alpha_O</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Weight between impact and private benefit for organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>alpha_R</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Weight between impact and private benefit for researcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>P_altruistic</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Private benefit for altruistic strategies</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>P_egoistic</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Private benefit for egoistic strategies</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>X_init</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0.3483541917404048</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Initial exigence value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Learning rate for exigence updates</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Threshold impact value</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Impact Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Organization Impact Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>a,k</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>a,d</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>a,p</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>e,k</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>e,d</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>e,p</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Researcher Impact Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Normalized</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>a,k</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>a,d</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>a,p</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>e,k</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>e,d</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>e,p</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Current Beliefs</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Updated Beliefs from Previous Step</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
           <t>Organization's beliefs about Researcher strategies</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>a,k</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>a,d</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>a,p</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>e,k</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>e,d</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>e,p</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="n">
+    <row r="41">
+      <c r="B41" t="n">
         <v>0.5224835421533234</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.1487134565017342</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C41" t="n">
+        <v>0.1487134565017341</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.02765095207758194</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E41" t="n">
         <v>0.2899412472570257</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.009060663976782053</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00215013803355277</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="F41" t="n">
+        <v>0.009060663976782055</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.002150138033552771</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Researcher's beliefs about Organization strategies</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Strategy</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>a,k</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a,d</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>a,p</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>e,k</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>e,d</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>e,p</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="n">
-        <v>0.5602520084002799</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="45">
+      <c r="B45" t="n">
+        <v>0.56025200840028</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.1041701390046335</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.0341344711490383</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2592086402880096</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0341344711490383</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0081002700090003</v>
+      <c r="D45" t="n">
+        <v>0.03413447114903831</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2592086402880097</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.03413447114903831</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.008100270009000304</v>
       </c>
     </row>
   </sheetData>
@@ -619,14 +1027,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Expected Impacts</t>
+          <t>Initial Beliefs</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Organization's expected impacts</t>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Organization's beliefs about Researcher strategies</t>
         </is>
       </c>
     </row>
@@ -669,28 +1077,28 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.7621911941671976</v>
+        <v>0.5224835421533234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6621911941671976</v>
+        <v>0.1487134565017341</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6121911941671976</v>
+        <v>0.02765095207758194</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7121911941671977</v>
+        <v>0.2899412472570257</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6121911941671976</v>
+        <v>0.009060663976782055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5621911941671976</v>
+        <v>0.002150138033552771</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Researcher's expected impacts</t>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Researcher's beliefs about Organization strategies</t>
         </is>
       </c>
     </row>
@@ -733,22 +1141,22 @@
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>0.7647621587386246</v>
+        <v>0.56025200840028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6647621587386245</v>
+        <v>0.1041701390046335</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5647621587386246</v>
+        <v>0.03413447114903831</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7147621587386246</v>
+        <v>0.2592086402880097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5147621587386246</v>
+        <v>0.03413447114903831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4647621587386246</v>
+        <v>0.008100270009000304</v>
       </c>
     </row>
   </sheetData>
@@ -773,14 +1181,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Expected Utilities</t>
+          <t>Expected Impacts</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Organization's expected utilities</t>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Organization's expected impacts</t>
         </is>
       </c>
     </row>
@@ -823,28 +1231,28 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.5310955970835988</v>
+        <v>0.7621911941671975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4810955970835988</v>
+        <v>0.6621911941671976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4560955970835988</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.7060955970835988</v>
+        <v>0.6121911941671976</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7121911941671976</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6560955970835988</v>
+        <v>0.6121911941671976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6310955970835987</v>
+        <v>0.5621911941671975</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Researcher's expected utilities</t>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Researcher's expected impacts</t>
         </is>
       </c>
     </row>
@@ -887,22 +1295,22 @@
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>0.5323810793693123</v>
+        <v>0.7647621587386246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4823810793693123</v>
+        <v>0.6647621587386247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4323810793693122</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.7073810793693123</v>
+        <v>0.5647621587386247</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7147621587386247</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6073810793693123</v>
+        <v>0.5147621587386246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5823810793693123</v>
+        <v>0.4647621587386247</v>
       </c>
     </row>
   </sheetData>
@@ -911,6 +1319,160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Expected Utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Organization's expected utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a,k</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>a,d</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>a,p</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>e,k</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>e,d</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>e,p</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>0.5310955970835988</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4810955970835988</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4560955970835988</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.7060955970835987</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6560955970835988</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6310955970835987</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Researcher's expected utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a,k</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>a,d</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>a,p</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>e,k</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>e,d</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>e,p</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.5323810793693123</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4823810793693123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4323810793693124</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7073810793693123</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6073810793693123</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5823810793693123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -932,7 +1494,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Organization's belief update</t>
         </is>
@@ -972,15 +1534,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1993013405241868</v>
+        <v>0.1771291074792492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1041316703529828</v>
+        <v>0.09254704349421486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1825561278884174</v>
-      </c>
-      <c r="E5" s="4" t="n">
+        <v>0.1622467962969814</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>0.570409065734734</v>
       </c>
     </row>
@@ -991,15 +1553,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1550121537410341</v>
+        <v>0.1377670835949716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02305239318260742</v>
+        <v>0.02048781919357158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1825561278884174</v>
-      </c>
-      <c r="E6" s="5" t="n">
+        <v>0.1622467962969814</v>
+      </c>
+      <c r="E6" s="8" t="n">
         <v>0.1262756471078176</v>
       </c>
     </row>
@@ -1010,15 +1572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1107229669578815</v>
+        <v>0.09840505971069402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003061595453240072</v>
+        <v>0.00272099359025199</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1825561278884174</v>
-      </c>
-      <c r="E7" s="5" t="n">
+        <v>0.1622467962969814</v>
+      </c>
+      <c r="E7" s="8" t="n">
         <v>0.01677070766483057</v>
       </c>
     </row>
@@ -1029,16 +1591,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1771567471326105</v>
+        <v>0.1574480955371104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05136504822362659</v>
+        <v>0.04565069719827315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1825561278884174</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.2813657849657181</v>
+        <v>0.1622467962969814</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.2813657849657182</v>
       </c>
     </row>
     <row r="9">
@@ -1048,16 +1610,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08857837356630524</v>
+        <v>0.07872404776855522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008025788784941655</v>
+        <v>0.000713292143723018</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1825561278884174</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.004396340390089346</v>
+        <v>0.1622467962969814</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>0.004396340390089347</v>
       </c>
     </row>
     <row r="10">
@@ -1067,16 +1629,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06643378017472892</v>
+        <v>0.05904303582641641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001428417974663687</v>
+        <v>0.0001269506769467968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1825561278884174</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.0007824541368103344</v>
+        <v>0.1622467962969814</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>0.0007824541368103348</v>
       </c>
     </row>
     <row r="11">
@@ -1086,11 +1648,11 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Researcher's belief update</t>
         </is>
@@ -1130,16 +1692,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1924288805061113</v>
+        <v>0.1710212072213441</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1078086667777663</v>
+        <v>0.09581497482479848</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1730552280907441</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>0.6229726080349058</v>
+        <v>0.1538028696430741</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0.6229726080349056</v>
       </c>
     </row>
     <row r="16">
@@ -1149,16 +1711,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1374492003615081</v>
+        <v>0.1221580051581029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01431810230773403</v>
+        <v>0.01272521637784832</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1730552280907441</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.08273718434109437</v>
+        <v>0.1538028696430741</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>0.08273718434109434</v>
       </c>
     </row>
     <row r="17">
@@ -1168,15 +1730,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1099593602892065</v>
+        <v>0.09772640412648233</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003753404611358627</v>
+        <v>0.003335839122154669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1730552280907441</v>
-      </c>
-      <c r="E17" s="5" t="n">
+        <v>0.1538028696430741</v>
+      </c>
+      <c r="E17" s="8" t="n">
         <v>0.02168905645191183</v>
       </c>
     </row>
@@ -1187,15 +1749,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1649390404338097</v>
+        <v>0.1465896061897235</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04275362440125687</v>
+        <v>0.03799729250079304</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1730552280907441</v>
-      </c>
-      <c r="E18" s="6" t="n">
+        <v>0.1538028696430741</v>
+      </c>
+      <c r="E18" s="9" t="n">
         <v>0.2470519086475582</v>
       </c>
     </row>
@@ -1206,15 +1768,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1099593602892065</v>
+        <v>0.09772640412648233</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003753404611358627</v>
+        <v>0.003335839122154669</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1730552280907441</v>
-      </c>
-      <c r="E19" s="5" t="n">
+        <v>0.1538028696430741</v>
+      </c>
+      <c r="E19" s="8" t="n">
         <v>0.02168905645191183</v>
       </c>
     </row>
@@ -1225,15 +1787,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08246952021690487</v>
+        <v>0.07329480309486175</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006680253812696385</v>
+        <v>0.0005937076953248913</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1730552280907441</v>
-      </c>
-      <c r="E20" s="5" t="n">
+        <v>0.1538028696430741</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <v>0.003860186072618097</v>
       </c>
     </row>
@@ -1244,7 +1806,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +1842,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3649162617886276</v>
+        <v>0.3492174922612755</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1288,7 +1850,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7121911941671977</v>
+        <v>0.7121911941671976</v>
       </c>
     </row>
     <row r="4">
@@ -1298,7 +1860,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4322891003081195</v>
+        <v>0.3592989376557214</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1306,7 +1868,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7147621587386246</v>
+        <v>0.7147621587386247</v>
       </c>
     </row>
     <row r="5">
@@ -1316,7 +1878,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7972053620967471</v>
+        <v>0.7085164299169969</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1334,7 +1896,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3326608368627876</v>
+        <v>0.3483541917404048</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1906,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2885094771346451</v>
+        <v>0.3112603200006048</v>
       </c>
     </row>
     <row r="9">
@@ -1353,8 +1915,8 @@
           <t>Exigence Change</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>-0.04415135972814244</v>
+      <c r="B9" s="8" t="n">
+        <v>-0.0370938717398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
